--- a/Escalada/escalada/clasamente/1/overall.xlsx
+++ b/Escalada/escalada/clasamente/1/overall.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Time R1</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
@@ -466,18 +471,23 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Cosma Anastasia</t>
+          <t>Nechifor Ema</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>CS LINX CLUB</t>
+          <t>ACS Adrenalin</t>
         </is>
       </c>
       <c r="D2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>00:12</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -487,7 +497,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Szatmari Samanta</t>
+          <t>Chiorean Evelin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -496,9 +506,14 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>9</v>
-      </c>
-      <c r="E3" t="n">
+        <v>3</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>00:13</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
         <v>2</v>
       </c>
     </row>
@@ -508,82 +523,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chiorean Evelin</t>
+          <t>Ghiurka Éva</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>CS LINX CLUB</t>
+          <t xml:space="preserve">6C Plus </t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>6</v>
-      </c>
-      <c r="E4" t="n">
+        <v>2</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>00:10</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Ghiurka Éva</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">6C Plus </t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>5</v>
-      </c>
-      <c r="E5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nechifor Ema</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>ACS Adrenalin</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Prejban Ana</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>One Move</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.5</v>
       </c>
     </row>
   </sheetData>

--- a/Escalada/escalada/clasamente/1/overall.xlsx
+++ b/Escalada/escalada/clasamente/1/overall.xlsx
@@ -480,11 +480,11 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>00:12</t>
+          <t>02:09</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -506,11 +506,11 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>00:13</t>
+          <t>02:06</t>
         </is>
       </c>
       <c r="F3" t="n">
@@ -532,11 +532,11 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>00:10</t>
+          <t>01:55</t>
         </is>
       </c>
       <c r="F4" t="n">
